--- a/Docs/Testing (TES)/Test_Cases/TS_Navigate.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Navigate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
   <si>
     <t>N</t>
   </si>
@@ -90,12 +90,6 @@
     <t>TS_navigate_004</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Нажать на наименование альбома 
-в списке всех альбомов
-2. Убедиться, что браузер 
-отображает страницу "represent" </t>
-  </si>
-  <si>
     <t>TS_represent_</t>
   </si>
   <si>
@@ -110,39 +104,135 @@
 2. Убедиться, что браузер отображает страницу "Home"</t>
   </si>
   <si>
-    <t>Отображение наименований альбомов при наведении курсора на элемент меню "Albums"</t>
-  </si>
-  <si>
-    <t>1. На любой странице сайта навести курсор на элемент меню "Albums"
-2. Убедиться, что под элементом меню "Albums" появился список с наименованиями альбомов</t>
-  </si>
-  <si>
     <t>FReq_navigate_004</t>
   </si>
   <si>
     <t>TS_navigate_005</t>
   </si>
   <si>
-    <t>Переход на страницу "About author" при 
-нажатии на элемент меню "About author"</t>
-  </si>
-  <si>
-    <t>1. На любой странице сайта нажать на элемент меню "About author"
-2. Убедиться, что браузер отображает страницу "About author"</t>
-  </si>
-  <si>
     <t>TS_feedback_002</t>
   </si>
   <si>
     <t>about author</t>
-  </si>
-  <si>
-    <t>Отображение страницы "About author" в
-браузере</t>
   </si>
   <si>
     <t>Отображение страницы "represent" в
 браузере</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Page About</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>Page Feedback</t>
+  </si>
+  <si>
+    <t>Page Represent</t>
+  </si>
+  <si>
+    <t>Page Preview</t>
+  </si>
+  <si>
+    <t>Page Buy</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TS_navigate_006</t>
+  </si>
+  <si>
+    <t>Album Cities</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass</t>
+  </si>
+  <si>
+    <t>Album Landscape</t>
+  </si>
+  <si>
+    <t>Album Skiing</t>
+  </si>
+  <si>
+    <t>Album Vladivostok</t>
+  </si>
+  <si>
+    <t>Album Russia</t>
+  </si>
+  <si>
+    <t>Album Test Album</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail</t>
+  </si>
+  <si>
+    <t>#120</t>
+  </si>
+  <si>
+    <t>Переход на страницу "About" при 
+нажатии на элемент меню "About"</t>
+  </si>
+  <si>
+    <t>1. На любой странице сайта нажать на элемент меню "About"
+2. Убедиться, что браузер отображает страницу "About"</t>
+  </si>
+  <si>
+    <t>Отображение страницы "About" в
+браузере</t>
+  </si>
+  <si>
+    <t>Freq_navigate_004</t>
+  </si>
+  <si>
+    <t>Отображение наименований альбомов при нажатии на элемент меню "Gallery"</t>
+  </si>
+  <si>
+    <t>1. На любой странице сайта нажать на элемент меню "Gallery"
+2. Убедиться, что под элементом меню "Gallery" появился список с наименованиями альбомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на элемент меню "Gallery" 
+2. Выбрать альбом &lt;любой альбом&gt;
+3. Убедиться, что браузер 
+отображает страницу "represent" &lt;выбранный альбом&gt; </t>
+  </si>
+  <si>
+    <t>Проверка на бездействие при двойном 
+нажатии на элемент меню "Gallery"</t>
+  </si>
+  <si>
+    <t>1.  На любой странице сайта нажать
+ 2 раза на элемент меню "Gallery"
+2. Убедиться, что ничего не произошло</t>
+  </si>
+  <si>
+    <t>#121</t>
+  </si>
+  <si>
+    <t>#122</t>
   </si>
 </sst>
 </file>
@@ -258,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="N" dataDxfId="16"/>
     <tableColumn id="2" name="Test ID" dataDxfId="15"/>
@@ -273,8 +363,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I37"/>
+  <sortState ref="A2:I12">
+    <sortCondition descending="1" ref="B1:B12"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -575,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -627,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
@@ -666,7 +759,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="90">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -674,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -683,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -703,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -711,35 +804,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="75">
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -747,24 +840,79 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="1">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A14" si="0">A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,20 +925,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
@@ -825,16 +973,1075 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A37" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f>I4</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f t="shared" ref="I14:I37" si="1">I5</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>B14</f>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>D14</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" ref="B16:B20" si="2">B15</f>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ref="D16:D26" si="3">D15</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>B20</f>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>D20</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" ref="B22:B26" si="4">B21</f>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>B26</f>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>D26</f>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" ref="B28:B32" si="5">B27</f>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" ref="D28:D31" si="6">D27</f>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>B32</f>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" ref="B34:B37" si="7">B33</f>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Navigate.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Navigate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="68">
   <si>
     <t>N</t>
   </si>
@@ -233,6 +233,16 @@
   </si>
   <si>
     <t>#122</t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -269,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -278,6 +288,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -363,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I73" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I73"/>
   <sortState ref="A2:I12">
     <sortCondition descending="1" ref="B1:B12"/>
   </sortState>
@@ -925,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1375,14 +1391,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" ref="B16:B20" si="2">B15</f>
+        <f t="shared" ref="B16:B19" si="2">B15</f>
         <v>TS_navigate_003</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D26" si="3">D15</f>
+        <f t="shared" ref="D16:D25" si="3">D15</f>
         <v>FReq_navigate_002</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1562,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" ref="B22:B26" si="4">B21</f>
+        <f t="shared" ref="B22:B25" si="4">B21</f>
         <v>TS_navigate_004</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1748,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" ref="B28:B32" si="5">B27</f>
+        <f t="shared" ref="B28:B31" si="5">B27</f>
         <v>TS_navigate_005</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2041,6 +2057,1086 @@
       <c r="I37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="1">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="str">
+        <f>I38</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40" s="1">
+        <f t="shared" ref="A40:A73" si="8">A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="str">
+        <f t="shared" ref="I40:I73" si="9">I39</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="1">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="1">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="1">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="1">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" s="1">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="1">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="1">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>B50</f>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>D50</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="1">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" ref="B52:B55" si="10">B51</f>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" ref="D52:D61" si="11">D51</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="1">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="1">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="1">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>TS_navigate_003</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45">
+      <c r="A56" s="1">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45">
+      <c r="A57" s="1">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>B56</f>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>D56</f>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45">
+      <c r="A58" s="1">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" ref="B58:B61" si="12">B57</f>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="45">
+      <c r="A59" s="1">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45">
+      <c r="A60" s="1">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="45">
+      <c r="A61" s="1">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>TS_navigate_004</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>FReq_navigate_002</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="1">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30">
+      <c r="A63" s="1">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>B62</f>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>D62</f>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="1">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" ref="B64:B67" si="13">B63</f>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" ref="D64:D67" si="14">D63</f>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="1">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30">
+      <c r="A66" s="1">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
+      <c r="A67" s="1">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>TS_navigate_005</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Freq_navigate_004</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="1">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="1">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>B68</f>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="1">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" ref="B70:B73" si="15">B69</f>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30">
+      <c r="A71" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="1">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30">
+      <c r="A73" s="4">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>TS_navigate_006</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>ver 1.1</v>
       </c>
     </row>
   </sheetData>
